--- a/bist100Gecmis/CWENE.xlsx
+++ b/bist100Gecmis/CWENE.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="isyatirim" sheetId="1" r:id="Rcb1a2a27ad664355"/>
+    <sheet name="isyatirim" sheetId="1" r:id="Rd2eb641a2e094c8f"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Tarih</t>
   </si>
@@ -407,6 +407,15 @@
   </si>
   <si>
     <t>07-11-2023</t>
+  </si>
+  <si>
+    <t>08-11-2023</t>
+  </si>
+  <si>
+    <t>09-11-2023</t>
+  </si>
+  <si>
+    <t>10-11-2023</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5338,6 +5347,129 @@
         <v>318</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="1">
+        <v>318.25</v>
+      </c>
+      <c r="C120" s="1">
+        <v>314.5</v>
+      </c>
+      <c r="D120" s="1">
+        <v>325</v>
+      </c>
+      <c r="E120" s="1">
+        <v>318.89</v>
+      </c>
+      <c r="F120" s="1">
+        <v>425193518</v>
+      </c>
+      <c r="G120" s="1">
+        <v>124</v>
+      </c>
+      <c r="H120" s="1">
+        <v>28.528</v>
+      </c>
+      <c r="I120" s="1">
+        <v>7861</v>
+      </c>
+      <c r="J120" s="1">
+        <v>39383</v>
+      </c>
+      <c r="K120" s="1">
+        <v>1381</v>
+      </c>
+      <c r="L120" s="1">
+        <v>9129</v>
+      </c>
+      <c r="M120" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="1">
+        <v>316.5</v>
+      </c>
+      <c r="C121" s="1">
+        <v>311</v>
+      </c>
+      <c r="D121" s="1">
+        <v>322</v>
+      </c>
+      <c r="E121" s="1">
+        <v>315.64</v>
+      </c>
+      <c r="F121" s="1">
+        <v>499649766</v>
+      </c>
+      <c r="G121" s="1">
+        <v>124</v>
+      </c>
+      <c r="H121" s="1">
+        <v>28.5272</v>
+      </c>
+      <c r="I121" s="1">
+        <v>7841</v>
+      </c>
+      <c r="J121" s="1">
+        <v>39167</v>
+      </c>
+      <c r="K121" s="1">
+        <v>1373</v>
+      </c>
+      <c r="L121" s="1">
+        <v>9079</v>
+      </c>
+      <c r="M121" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="1">
+        <v>311</v>
+      </c>
+      <c r="C122" s="1">
+        <v>309</v>
+      </c>
+      <c r="D122" s="1">
+        <v>318.5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>312.62</v>
+      </c>
+      <c r="F122" s="1">
+        <v>318445923</v>
+      </c>
+      <c r="G122" s="1">
+        <v>124</v>
+      </c>
+      <c r="H122" s="1">
+        <v>28.537</v>
+      </c>
+      <c r="I122" s="1">
+        <v>7771</v>
+      </c>
+      <c r="J122" s="1">
+        <v>38486</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1349</v>
+      </c>
+      <c r="L122" s="1">
+        <v>8921</v>
+      </c>
+      <c r="M122" s="1">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
